--- a/biology/Botanique/Anredera/Anredera.xlsx
+++ b/biology/Botanique/Anredera/Anredera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anredera est un genre de plantes originaires d’Amérique latine, des Antilles, du Texas et de Floride. Certains sont naturalisés dans d’autres régions (notamment la région méditerranéenne et sur diverses îles océaniques)[1]. La plupart d’entre eux sont des vignes à feuilles persistantes de garrigues sèches et de fourrés. Les membres du genre sont communément connus sous le nom de Madeira vines[2]. Au moins une espèce, A. cordifolia porte des racines ou des tubercules comestibles et des feuilles similaires à celles de Basella alba. La même espèce est devenue une plante envahissante dans de nombreuses régions tropicales et subtropicales en dehors de son aire de répartition naturelle.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anredera est un genre de plantes originaires d’Amérique latine, des Antilles, du Texas et de Floride. Certains sont naturalisés dans d’autres régions (notamment la région méditerranéenne et sur diverses îles océaniques). La plupart d’entre eux sont des vignes à feuilles persistantes de garrigues sèches et de fourrés. Les membres du genre sont communément connus sous le nom de Madeira vines. Au moins une espèce, A. cordifolia porte des racines ou des tubercules comestibles et des feuilles similaires à celles de Basella alba. La même espèce est devenue une plante envahissante dans de nombreuses régions tropicales et subtropicales en dehors de son aire de répartition naturelle.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Liste des espèces acceptées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Anredera aspera Sperling - Bolivia
 Anredera baselloides (Kunth) Baill. – Gulf Madeira vine - Ecuador, Peru; naturalized in Bermuda, Dominican Republic
@@ -552,7 +566,9 @@
           <t>References</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Liste de contrôle mondiale de Kew des familles de plantes sélectionnées
